--- a/RICKY_COLLINS.xlsx
+++ b/RICKY_COLLINS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -104,70 +107,46 @@
     <t xml:space="preserve">2928 PLANK RD, WADESBORO, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLINS, RICKY D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-217-0994</t>
+    <t xml:space="preserve">HP-East Multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLINS, RICKY D</t>
   </si>
   <si>
     <t xml:space="preserve">SSM PICL03</t>
   </si>
   <si>
+    <t xml:space="preserve">0.38472222222222219</t>
+  </si>
+  <si>
     <t xml:space="preserve">PICL03</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35416666666666669</t>
-  </si>
-  <si>
     <t xml:space="preserve">PEAR ORCHARD</t>
   </si>
   <si>
+    <t xml:space="preserve">1-704-221-0458</t>
+  </si>
+  <si>
     <t xml:space="preserve">PICL02</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22569444444444445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA WOMBLE CORP 71861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">919-499-0880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1615 MCKOY TOWN RD, CAMERON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM SPG120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:45Am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA WOMBLE CORP 71921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">919-499-2908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1616 MCKOY TOWN RD, CAMERON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWIN OAKES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
+    <t xml:space="preserve">0.31388888888888888</t>
   </si>
   <si>
     <t xml:space="preserve">W4</t>
   </si>
   <si>
-    <t xml:space="preserve">8:52am</t>
+    <t xml:space="preserve">419 White rd Elkin NC 28621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419  White Rd Elkin NC 28621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:000 am</t>
   </si>
   <si>
     <t xml:space="preserve">WHITE ROCK FARMS LLC SOW</t>
@@ -176,7 +155,7 @@
     <t xml:space="preserve">2346 CRAWFORD POND RD, MORVEN, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27361111111111108</t>
+    <t xml:space="preserve">0.29097222222222224</t>
   </si>
 </sst>
 </file>
@@ -513,34 +492,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="32.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="14.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="33.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="22.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,134 +602,137 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7081</v>
+        <v>7082</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>74401</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2"/>
-      <c r="M2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N2"/>
+      <c r="M2"/>
+      <c r="N2" t="n">
+        <v>30</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" t="n">
-        <v>18</v>
-      </c>
-      <c r="R2"/>
+      <c r="Q2"/>
+      <c r="R2" t="n">
+        <v>30</v>
+      </c>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2" t="n">
-        <v>20</v>
-      </c>
-      <c r="V2"/>
-      <c r="W2" t="n">
+      <c r="U2"/>
+      <c r="V2" t="n">
         <v>46</v>
       </c>
+      <c r="W2"/>
       <c r="X2" t="n">
-        <v>0.231155778894472</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
+        <v>106</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.543589743589744</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>7081</v>
+        <v>7082</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>74401</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="n">
-        <v>66</v>
-      </c>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>86</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>167</v>
-      </c>
-      <c r="S3"/>
+      <c r="R3"/>
+      <c r="S3" t="n">
+        <v>34</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3" t="n">
-        <v>180</v>
-      </c>
+      <c r="V3"/>
       <c r="W3" t="n">
-        <v>413</v>
+        <v>190</v>
       </c>
       <c r="X3" t="n">
-        <v>2.07537688442211</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3"/>
+        <v>310</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.58974358974359</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>7082</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -757,337 +740,223 @@
       <c r="E4" t="n">
         <v>68111</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>90</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>110</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>50</v>
-      </c>
+      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4" t="n">
+      <c r="V4"/>
+      <c r="W4" t="n">
         <v>110</v>
       </c>
-      <c r="W4" t="n">
-        <v>250</v>
-      </c>
       <c r="X4" t="n">
-        <v>2.23214285714286</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4"/>
+        <v>220</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.0952380952381</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7069</v>
+        <v>7081</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>4979</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
+        <v>5074</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="X5" t="n">
-        <v>2.42105263157895</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5"/>
+        <v>92</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7068</v>
+        <v>7081</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>4980</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
+        <v>5074</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6" t="n">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="X6" t="n">
-        <v>2.92592592592593</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6"/>
+        <v>92</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.807017543859649</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
         <v>7082</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>68151</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
+        <v>68161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
         <v>32</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="n">
+      <c r="N7"/>
+      <c r="O7" t="n">
         <v>115</v>
       </c>
-      <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" t="n">
-        <v>60</v>
-      </c>
+      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7" t="n">
-        <v>75</v>
-      </c>
+      <c r="V7"/>
       <c r="W7" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="X7" t="n">
-        <v>2.33644859813084</v>
-      </c>
-      <c r="Y7"/>
-      <c r="Z7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7068</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5074</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="n">
-        <v>54</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8" t="n">
-        <v>220</v>
-      </c>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8" t="n">
-        <v>274</v>
-      </c>
-      <c r="X8"/>
-      <c r="Y8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7082</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="n">
-        <v>68161</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" t="n">
-        <v>90</v>
-      </c>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>50</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9" t="n">
-        <v>110</v>
-      </c>
-      <c r="W9" t="n">
-        <v>250</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.17391304347826</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9"/>
+        <v>230</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.73809523809524</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
